--- a/diccionarios/baseExcel_fake.xlsx
+++ b/diccionarios/baseExcel_fake.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Personal Space\PYTHON\APP TARIFAS\diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D64C83-B9FB-4E24-A8EB-9A4ABBDC80A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1076B1A9-D291-49B0-B36C-3F9A2AC94266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cuentas" sheetId="3" r:id="rId1"/>
@@ -3509,8 +3509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
